--- a/data/daily-data.xlsx
+++ b/data/daily-data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/admin/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/admin/Desktop/project/daily-bible/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06CBC202-EC4C-074A-A5BF-C6E9F03826A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EC4FEBE-7913-904C-B420-843DEC5F8317}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" xr2:uid="{FC6329A4-7D48-6B49-8798-030FC043C6A6}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="14460" xr2:uid="{FC6329A4-7D48-6B49-8798-030FC043C6A6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1709,8 +1709,8 @@
   <dimension ref="A1:C366"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A294" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D300" sqref="D300"/>
+      <pane ySplit="1" topLeftCell="A351" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H359" sqref="H359"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
